--- a/source/jour_vs_nuit.xlsx
+++ b/source/jour_vs_nuit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leid\Documents\Ynov\data_science\DataScience_DataCrime\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BAA2A-BA85-4D5E-AFD3-7294DB773581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5499C9F5-6508-4556-B7A8-C5B3A69A3B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{FB466566-E3C8-40F3-ABBD-1BA6A088BC65}"/>
   </bookViews>
@@ -123,6 +123,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Day</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> vs Night</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2094,7 +2124,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
